--- a/data_frame_total.xlsx
+++ b/data_frame_total.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfa0be9c7e07243d/Área de Trabalho/Base_Dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED99DB0C1D872C4CB26DD1BC8864500C57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861A4A3F-C931-40CF-8DF8-58AD66B94342}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="76">
   <si>
-    <t>Nome</t>
+    <t>nome</t>
   </si>
   <si>
     <t>bimestre</t>
@@ -28,7 +34,7 @@
     <t>Notas</t>
   </si>
   <si>
-    <t>Turma</t>
+    <t>turma</t>
   </si>
   <si>
     <t>ANA CLARA VIEIRA DE ALMEIDA</t>
@@ -247,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +317,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -389,6 +403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -423,9 +438,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,14 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +660,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -656,7 +677,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +694,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -690,7 +711,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -707,7 +728,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -724,7 +745,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -741,7 +762,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -758,7 +779,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -775,7 +796,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -792,7 +813,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -809,7 +830,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -826,7 +847,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -843,7 +864,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -860,7 +881,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -877,7 +898,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -894,7 +915,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -911,7 +932,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -928,7 +949,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -945,7 +966,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -962,7 +983,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -979,7 +1000,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1017,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1102,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1136,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1153,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1170,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1204,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1238,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1255,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1268,7 +1289,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1323,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1340,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1357,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1374,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1391,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1425,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1476,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1493,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1510,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1544,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1578,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1646,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1659,7 +1680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1714,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1748,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1782,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1799,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1816,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1867,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1884,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1901,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1897,7 +1918,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1935,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +1986,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +2003,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2071,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2105,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2122,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2156,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2169,7 +2190,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2237,7 +2258,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2275,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2292,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2309,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -2305,7 +2326,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2377,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2394,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -2390,7 +2411,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -2407,7 +2428,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -2475,7 +2496,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>46</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>47</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2581,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -2577,7 +2598,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -2594,7 +2615,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -2628,7 +2649,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -2662,7 +2683,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>56</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2717,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2734,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2768,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -2781,7 +2802,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2819,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2836,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -2849,7 +2870,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -2900,7 +2921,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -2917,7 +2938,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -2934,7 +2955,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -2985,7 +3006,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -3002,7 +3023,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -3019,7 +3040,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>48</v>
       </c>
@@ -3036,7 +3057,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>49</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -3070,7 +3091,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>51</v>
       </c>
@@ -3087,7 +3108,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>53</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>54</v>
       </c>
@@ -3138,7 +3159,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>55</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -3189,7 +3210,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>29</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3244,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -3240,7 +3261,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -3257,7 +3278,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -3325,7 +3346,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -3342,7 +3363,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -3359,7 +3380,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -3376,7 +3397,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -3393,7 +3414,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -3410,7 +3431,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -3427,7 +3448,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -3444,7 +3465,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>44</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -3478,7 +3499,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -3512,7 +3533,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -3546,7 +3567,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>50</v>
       </c>
@@ -3563,7 +3584,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>51</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -3614,7 +3635,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -3631,7 +3652,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -3648,7 +3669,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -3665,7 +3686,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>28</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>29</v>
       </c>
@@ -3699,7 +3720,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -3716,7 +3737,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -3767,7 +3788,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +3805,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -3835,7 +3856,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +3924,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -3920,7 +3941,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>44</v>
       </c>
@@ -3954,7 +3975,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -3971,7 +3992,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>47</v>
       </c>
@@ -4005,7 +4026,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>48</v>
       </c>
@@ -4022,7 +4043,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -4073,7 +4094,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4111,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>53</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>54</v>
       </c>
@@ -4124,7 +4145,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>56</v>
       </c>
@@ -4158,7 +4179,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -4175,7 +4196,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>59</v>
       </c>
@@ -4209,7 +4230,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>60</v>
       </c>
@@ -4226,7 +4247,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>61</v>
       </c>
@@ -4243,7 +4264,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>62</v>
       </c>
@@ -4260,7 +4281,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>63</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>64</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>65</v>
       </c>
@@ -4311,7 +4332,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>66</v>
       </c>
@@ -4328,7 +4349,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>67</v>
       </c>
@@ -4345,7 +4366,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>68</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>69</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>70</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>71</v>
       </c>
@@ -4413,7 +4434,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>72</v>
       </c>
@@ -4430,7 +4451,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>73</v>
       </c>
@@ -4447,7 +4468,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>74</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>75</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>57</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -4515,7 +4536,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>59</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>60</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>62</v>
       </c>
@@ -4583,7 +4604,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>63</v>
       </c>
@@ -4600,7 +4621,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>64</v>
       </c>
@@ -4617,7 +4638,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -4634,7 +4655,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>66</v>
       </c>
@@ -4651,7 +4672,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -4668,7 +4689,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -4685,7 +4706,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>69</v>
       </c>
@@ -4702,7 +4723,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>70</v>
       </c>
@@ -4719,7 +4740,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>71</v>
       </c>
@@ -4736,7 +4757,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>72</v>
       </c>
@@ -4753,7 +4774,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -4770,7 +4791,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>74</v>
       </c>
@@ -4787,7 +4808,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>75</v>
       </c>
@@ -4804,7 +4825,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>57</v>
       </c>
@@ -4821,7 +4842,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>58</v>
       </c>
@@ -4838,7 +4859,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -4855,7 +4876,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>61</v>
       </c>
@@ -4889,7 +4910,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -4906,7 +4927,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>63</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>64</v>
       </c>
@@ -4940,7 +4961,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>66</v>
       </c>
@@ -4974,7 +4995,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>67</v>
       </c>
@@ -4991,7 +5012,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>69</v>
       </c>
@@ -5025,7 +5046,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>70</v>
       </c>
@@ -5042,7 +5063,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>71</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -5076,7 +5097,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>73</v>
       </c>
@@ -5093,7 +5114,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>74</v>
       </c>
@@ -5110,7 +5131,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>75</v>
       </c>
@@ -5127,7 +5148,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>57</v>
       </c>
@@ -5144,7 +5165,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>58</v>
       </c>
@@ -5161,7 +5182,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>59</v>
       </c>
@@ -5178,7 +5199,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>60</v>
       </c>
@@ -5195,7 +5216,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>61</v>
       </c>
@@ -5212,7 +5233,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>62</v>
       </c>
@@ -5229,7 +5250,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>63</v>
       </c>
@@ -5246,7 +5267,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>64</v>
       </c>
@@ -5263,7 +5284,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>65</v>
       </c>
@@ -5280,7 +5301,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>66</v>
       </c>
@@ -5297,7 +5318,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>67</v>
       </c>
@@ -5314,7 +5335,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -5331,7 +5352,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>69</v>
       </c>
@@ -5348,7 +5369,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>70</v>
       </c>
@@ -5365,7 +5386,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>71</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>72</v>
       </c>
@@ -5399,7 +5420,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -5416,7 +5437,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>74</v>
       </c>
@@ -5433,7 +5454,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>75</v>
       </c>
